--- a/docs/matrizSWOT.xlsx
+++ b/docs/matrizSWOT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alban\OneDrive\Área de Trabalho\Materias_FATEC\5_Semestre\lab_engenharia_de_software\documentação tg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albano\Desktop\Fatec\sexto_semestre\tg_licita_sp\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47814A11-B5F2-4F5B-ADDD-BD2A3916F293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB758456-CD89-4F21-A3DA-DA3EBA2BBE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -54,9 +57,6 @@
     <t xml:space="preserve">        Concorrência com soluções mais robustas</t>
   </si>
   <si>
-    <t>Uso de tecnologias consolidadas (Python, MySQL)</t>
-  </si>
-  <si>
     <t>Melhoria contínua com feedback dos usuários</t>
   </si>
   <si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Por ser um sistema WEB, pode ter problemas de atingir um público maior</t>
+  </si>
+  <si>
+    <t>Uso de tecnologias consolidadas (Javascript, Next.js, Puppeteer)</t>
   </si>
 </sst>
 </file>
@@ -455,18 +458,18 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B15:B16"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="64.81640625" customWidth="1"/>
-    <col min="2" max="2" width="59.36328125" customWidth="1"/>
-    <col min="3" max="3" width="49.26953125" customWidth="1"/>
-    <col min="4" max="4" width="39.36328125" customWidth="1"/>
+    <col min="1" max="1" width="64.77734375" customWidth="1"/>
+    <col min="2" max="2" width="59.33203125" customWidth="1"/>
+    <col min="3" max="3" width="49.21875" customWidth="1"/>
+    <col min="4" max="4" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -474,7 +477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -482,7 +485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -490,48 +493,48 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
